--- a/data_year/zb/教育/各级各类学校在校学生数.xlsx
+++ b/data_year/zb/教育/各级各类学校在校学生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,619 +478,363 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6256.3</v>
+        <v>5279.3</v>
       </c>
       <c r="C2" t="n">
-        <v>2244.2</v>
+        <v>2976.7</v>
       </c>
       <c r="D2" t="n">
-        <v>7368.91</v>
+        <v>7703.2478</v>
       </c>
       <c r="E2" t="n">
-        <v>13013.3</v>
+        <v>9940.700000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>1201.3</v>
+        <v>2427.3</v>
       </c>
       <c r="G2" t="n">
-        <v>556.1</v>
+        <v>2231.8</v>
       </c>
       <c r="H2" t="n">
-        <v>37.8</v>
+        <v>42.6</v>
       </c>
       <c r="I2" t="n">
-        <v>503.21</v>
+        <v>729.7505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6514.4</v>
+        <v>5066.8</v>
       </c>
       <c r="C3" t="n">
-        <v>2021.8</v>
+        <v>3424.5</v>
       </c>
       <c r="D3" t="n">
-        <v>7836.02</v>
+        <v>7519</v>
       </c>
       <c r="E3" t="n">
-        <v>12543.5</v>
+        <v>9926.4</v>
       </c>
       <c r="F3" t="n">
-        <v>1405</v>
+        <v>2454.8</v>
       </c>
       <c r="G3" t="n">
-        <v>719.1</v>
+        <v>2308.5</v>
       </c>
       <c r="H3" t="n">
-        <v>38.6</v>
+        <v>39.9</v>
       </c>
       <c r="I3" t="n">
-        <v>466.43</v>
+        <v>683.5688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6687.4</v>
+        <v>4763.1</v>
       </c>
       <c r="C4" t="n">
-        <v>2036</v>
+        <v>3685.8</v>
       </c>
       <c r="D4" t="n">
-        <v>8287.870000000001</v>
+        <v>7230.2</v>
       </c>
       <c r="E4" t="n">
-        <v>12156.7</v>
+        <v>9695.9</v>
       </c>
       <c r="F4" t="n">
-        <v>1683.8</v>
+        <v>2467.2</v>
       </c>
       <c r="G4" t="n">
-        <v>903.4</v>
+        <v>2391.3</v>
       </c>
       <c r="H4" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>511.5</v>
-      </c>
+        <v>37.9</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6690.8</v>
+        <v>4440.1</v>
       </c>
       <c r="C5" t="n">
-        <v>2003.9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8583.200000000001</v>
-      </c>
+        <v>3894.7</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>11689.7</v>
+        <v>9360.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1964.8</v>
+        <v>2435.9</v>
       </c>
       <c r="G5" t="n">
-        <v>1108.6</v>
+        <v>2468.1</v>
       </c>
       <c r="H5" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>528.17</v>
-      </c>
+        <v>36.8</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6527.5</v>
+        <v>4384.6</v>
       </c>
       <c r="C6" t="n">
-        <v>2089.4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8695.4</v>
-      </c>
+        <v>4050.7</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>11246.2</v>
+        <v>9451.1</v>
       </c>
       <c r="F6" t="n">
-        <v>2220.4</v>
+        <v>2400.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1333.5</v>
+        <v>2547.7</v>
       </c>
       <c r="H6" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>569.4</v>
-      </c>
+        <v>39.5</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6214.9</v>
+        <v>4312</v>
       </c>
       <c r="C7" t="n">
-        <v>2179</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8580.897999999999</v>
-      </c>
+        <v>4264.8</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>10864.1</v>
+        <v>9692.200000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>2409.1</v>
+        <v>2374.4</v>
       </c>
       <c r="G7" t="n">
-        <v>1561.8</v>
+        <v>2625.3</v>
       </c>
       <c r="H7" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>625.5656</v>
-      </c>
+        <v>44.2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5957.9491</v>
+        <v>4329.4</v>
       </c>
       <c r="C8" t="n">
-        <v>2263.9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8451.9</v>
-      </c>
+        <v>4413.9</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>10711.5</v>
+        <v>9913</v>
       </c>
       <c r="F8" t="n">
-        <v>2514.5</v>
+        <v>2366.6</v>
       </c>
       <c r="G8" t="n">
-        <v>1738.8</v>
+        <v>2695.8</v>
       </c>
       <c r="H8" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>676.2</v>
-      </c>
+        <v>49.2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5736.2</v>
+        <v>4442.1</v>
       </c>
       <c r="C9" t="n">
-        <v>2348.8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8243.299999999999</v>
-      </c>
+        <v>4600.1</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>10564</v>
+        <v>10093.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2522.4</v>
+        <v>2374.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1884.9</v>
+        <v>2753.6</v>
       </c>
       <c r="H9" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>740.544</v>
-      </c>
+        <v>57.9</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5585</v>
+        <v>4652.5854</v>
       </c>
       <c r="C10" t="n">
-        <v>2475</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8050.5</v>
-      </c>
+        <v>4656.4204</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>10331.5</v>
+        <v>10339.2541</v>
       </c>
       <c r="F10" t="n">
-        <v>2476.3</v>
+        <v>2375.3709</v>
       </c>
       <c r="G10" t="n">
-        <v>2021</v>
+        <v>2831.0348</v>
       </c>
       <c r="H10" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="I10" t="n">
-        <v>761.1336</v>
-      </c>
+        <v>66.5942</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5440.9</v>
+        <v>4827.1362</v>
       </c>
       <c r="C11" t="n">
-        <v>2657.8</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7867.9203</v>
-      </c>
+        <v>4713.881</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>10071.5</v>
+        <v>10561.2358</v>
       </c>
       <c r="F11" t="n">
-        <v>2434.3</v>
+        <v>2414.305</v>
       </c>
       <c r="G11" t="n">
-        <v>2144.7</v>
+        <v>3031.5262</v>
       </c>
       <c r="H11" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>785.7234999999999</v>
-      </c>
+        <v>79.46120000000001</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5279.3</v>
+        <v>4914.0893</v>
       </c>
       <c r="C12" t="n">
-        <v>2976.7</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7703.2478</v>
-      </c>
+        <v>4818.2634</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>9940.700000000001</v>
+        <v>10725.3532</v>
       </c>
       <c r="F12" t="n">
-        <v>2427.3</v>
+        <v>2494.4529</v>
       </c>
       <c r="G12" t="n">
-        <v>2231.8</v>
+        <v>3285.2948</v>
       </c>
       <c r="H12" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>729.7505</v>
-      </c>
+        <v>88.08</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5066.8</v>
+        <v>5018.4373</v>
       </c>
       <c r="C13" t="n">
-        <v>3424.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7519</v>
-      </c>
+        <v>4805.2063</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>9926.4</v>
+        <v>10779.9349</v>
       </c>
       <c r="F13" t="n">
-        <v>2454.8</v>
+        <v>2605.0291</v>
       </c>
       <c r="G13" t="n">
-        <v>2308.5</v>
+        <v>3496.1307</v>
       </c>
       <c r="H13" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="I13" t="n">
-        <v>683.5688</v>
-      </c>
+        <v>91.97669999999999</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4763.1</v>
+        <v>5120.5965</v>
       </c>
       <c r="C14" t="n">
-        <v>3685.8</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7230.2</v>
-      </c>
+        <v>4627.5486</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>9695.9</v>
+        <v>10732.0594</v>
       </c>
       <c r="F14" t="n">
-        <v>2467.2</v>
+        <v>2713.8747</v>
       </c>
       <c r="G14" t="n">
-        <v>2391.3</v>
+        <v>3659.4175</v>
       </c>
       <c r="H14" t="n">
-        <v>37.9</v>
+        <v>91.8502</v>
       </c>
       <c r="I14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4440.1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3894.7</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>9360.5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2435.9</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2468.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4384.6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4050.7</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>9451.1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2400.5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2547.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4312</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4264.8</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>9692.200000000001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2374.4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2625.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4329.4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4413.9</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>9913</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2366.6</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2695.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4442.1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4600.1</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>10093.7</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2374.5</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2753.6</v>
-      </c>
-      <c r="H19" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4652.6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4656.4</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>10339.3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2375.4</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2831</v>
-      </c>
-      <c r="H20" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4827.1362</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4713.881</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>10561.2358</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2414.305</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3031.5262</v>
-      </c>
-      <c r="H21" t="n">
-        <v>79.46120000000001</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>4914.0893</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4818.2634</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>10725.3532</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2494.4529</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3285.2948</v>
-      </c>
-      <c r="H22" t="n">
-        <v>88.08</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
